--- a/DataIn/Centroides.xlsx
+++ b/DataIn/Centroides.xlsx
@@ -8,14 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a6b088a06617d4fb/Ejercicio 7/Documents/Documents/Maestria/Modelado_Merlin/GitHub_Datos/Social_Model_Enchugal/DataIn/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="14_{D0634612-5120-4C36-B014-0DBBC0483322}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1C9674B9-7E83-4DB0-B612-66D763204958}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="14_{D0634612-5120-4C36-B014-0DBBC0483322}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A3099818-9E15-48E8-BFD4-B89612BAF217}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="centroides_nome_atu" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja1" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">centroides_nome_atu!$B$1:$B$661</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Hoja1!$A$1:$A$661</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -923,8 +927,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E661"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" activeCellId="2" sqref="B1:B1048576 D1:D1048576 E1:E1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A391" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -12170,6 +12174,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="B1:B661" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -12179,8 +12184,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2DD585A-55F5-4D63-93D8-6FF77545FE25}">
   <dimension ref="A1:C661"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -19460,6 +19465,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:A661" xr:uid="{F2DD585A-55F5-4D63-93D8-6FF77545FE25}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>